--- a/biology/Zoologie/Adlet/Adlet.xlsx
+++ b/biology/Zoologie/Adlet/Adlet.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Adlet (ou Erqigdlet) sont une race de créatures légendaires issues de la mythologie inuit du Groenland, et des côtes du Labrador et de la Baie d'Hudson. Cette tribu posséderait des jambes de chien et un corps humain[1]. Les Adlets courent très rapidement et les rencontres avec les humains finissent généralement en bataille, ces derniers étant souvent victorieux[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Adlet (ou Erqigdlet) sont une race de créatures légendaires issues de la mythologie inuit du Groenland, et des côtes du Labrador et de la Baie d'Hudson. Cette tribu posséderait des jambes de chien et un corps humain. Les Adlets courent très rapidement et les rencontres avec les humains finissent généralement en bataille, ces derniers étant souvent victorieux.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Récit</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Selon la mythologie inuite, l'adlet est né lorsqu'une magnifique femme inuite, vivant sur les rives de la baie d'Hudson, a épousé un gigantesque chien rouge doté de pouvoirs surnaturels. L'étrange couple s'aimait passionnément et la femme finit par tomber enceinte. Neuf mois plus tard, elle donna naissance à dix enfants. Les cinq premiers étaient de petits chiots magnifiques ressemblant à leur père. Cependant, les cinq autres étaient des hybrides féroces étant une combinaison des pires traits des deux parents. Les hybrides sont devenus adultes en quelques heures seulement, puis ont tenté de tuer leur mère. Leur monstrueux père a attaqué et a réussi à dévier l'adlet mais en étant lui-même mortellement blessé. Après la mort de son mari, la femme en deuil s'enfuit sur les rives de la baie d'Hudson, où elle a mis ses cinq chiots à la dérive sur un grand morceau de bois.  Les chiots traversèrent l'océan pour finalement atterrir sur les côtes de ce qui est aujourd'hui l'Europe. Là-bas, ils épousèrent eux aussi des humains et donnèrent naissance à une race d'humains à la peau pâle qui retourneront dans la baie d'Hudson des siècles plus tard. Pendant ce temps, l'adlet s'est mis à se cacher dans les étendues sauvages, où les créatures se sont accouplées et se sont multipliées.
 </t>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">A ce jour, l'adlet erre toujours dans les froides étendues sauvages, commençant au Québec et à Terre-Neuve, et s'étendant jusque dans la partie nord la plus éloignée du Groenland. Mais l'habitat principal de l'adlet reste les rives de la baie d'Hudson même si il y en a beaucoup au Labrador. Les adlets sont connus des tribus inuites de la région, ainsi que de celles vivant dans les régions environnantes à l'ouest de la baie d'Hudson.
 Il est carnivore, se nourrissant de la chair et du sang d'autres animaux. Il apprécie la chair et le sang humain plus que toute autre chose, allant jusqu'à sucer la moelle osseuse des victimes. Mais, même s'il est carnivore, il est capable de survivre en mangeant n'importe quel autre type de nourriture (y compris les champignons, les racines et divers types de végétation), mais il en mange qu'en dernier recours, s'il n'a pas trouvé d'animal à dévorer.
